--- a/medicine/Enfance/Frédéric_Lenormand/Frédéric_Lenormand.xlsx
+++ b/medicine/Enfance/Frédéric_Lenormand/Frédéric_Lenormand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
+          <t>Frédéric_Lenormand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Lenormand, né le 5 septembre 1964 à Paris IVe, est un écrivain français, auteur notamment de romans policiers historiques et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
+          <t>Frédéric_Lenormand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un professeur de mathématiques à l'Université de Paris VIII et de la directrice du centre de documentation du Planning familial, Lenormand est aussi le petit-fils d'un collectionneur d'art japonais, si bien que son enfance baigna dans la culture, la littérature et les mythes asiatiques. Après un bac de langues en 1982 (il parle russe, anglais et italien), il poursuit ses études à l'Institut d'études politiques de Paris puis à la Sorbonne.
 À Madrid, en 1988, il écrit cinq romans coup sur coup afin de cerner ses possibilités littéraires. L'un d'entre eux, Le Songe d'Ursule, inspiré par le cycle de Carpaccio conservé au musée de l'Académie, lui vaut le prix Del Duca du jeune romancier.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
+          <t>Frédéric_Lenormand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Regards sur l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteur de romans historiques, il aborde d'abord le XVIIIe siècle, la Révolution, la Terreur, les maisons de santé transformées en prisons à cette époque - avec : La Pension Belhomme (sur les prisonniers de cette maison de fous), et Douze tyrans minuscules (sur les policiers qui les y enfermèrent).
 Il glisse ensuite des policiers de la Terreur à ceux de la Chine ancienne, en donnant une suite aux romans chinois de Robert van Gulik avec Les Nouvelles Enquêtes du juge Ti.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
+          <t>Frédéric_Lenormand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Traductions  à l'étranger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nouvelles enquêtes du juge Ti sont traduites en allemand (Kuebler Verlag), en tchèque (Garamond), en espagnol (Ediciones Paidos Iberica), en portugais (Europress) et en bulgare (éditions Paradox).
 Les Mystères de Venise sont traduits en allemand (Thiele Verlag) et en italien (Newton Compton Editori).
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
+          <t>Frédéric_Lenormand</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Romans
-Série Voltaire mène l'enquête
-La Baronne meurt à cinq heures : roman, Paris, Éditions Jean-Claude Lattès, 2011, 280 p. (ISBN 978-2-7096-3555-4, BNF 42338169), prix Arsène Lupin 2011[1] Rééd. Le Masque, coll. « Labyrinthes », 2012, 310 p.  (ISBN 978-2-7024-3642-4) ; Le Livre de poche, coll. « Policier » (no 32938), 2013, 288 p.  (ISBN 978-2-253-16254-4)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Voltaire mène l'enquête</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Baronne meurt à cinq heures : roman, Paris, Éditions Jean-Claude Lattès, 2011, 280 p. (ISBN 978-2-7096-3555-4, BNF 42338169), prix Arsène Lupin 2011 Rééd. Le Masque, coll. « Labyrinthes », 2012, 310 p.  (ISBN 978-2-7024-3642-4) ; Le Livre de poche, coll. « Policier » (no 32938), 2013, 288 p.  (ISBN 978-2-253-16254-4)
 Meurtre dans le boudoir : roman, Paris, Éditions Jean-Claude Lattès, 2012, 321 p. (ISBN 978-2-7096-3941-5) Rééd. Le Masque, coll. « Masque Poche » (no 10), 2013, 340 p.  (ISBN 978-2-7024-3901-2) ; Le Livre de poche, coll. « Policier » (no 33133), 2014, 288 p.  (ISBN 978-2-253-16889-8)
 Le Diable s’habille en Voltaire, Paris, Éditions Jean-Claude Lattès, 2013, 300 p.  (ISBN 978-2-7096-4290-3) Rééd. Le Masque, coll. « Masque Poche » (no 39), 2014, 340 p.  (ISBN 978-2-7024-4080-3) ; Le Livre de poche, coll. « Policier » (no 33683), 2015, 288 p.  (ISBN 978-2-253-17778-4)
 Crimes et Condiments, Paris, Éditions Jean-Claude Lattès, 29 janvier 2014, 337 p.  (ISBN 978-2-7096-4596-6) Rééd. Le Masque, coll. « Masque Poche » (no 55), 2015, 350 p.  (ISBN 978-2-7024-4168-8) ; Le Livre de poche, coll. « Policier » (no 34119), 2016, 280 p.  (ISBN 978-2-253-18448-5)
@@ -632,9 +658,47 @@
 Panique à Rouen, Paris, Éditions Createspace, 2017, 124 p.  (ISBN 978-1-5370-8147-2)
 Un carrosse nommé Désir, Paris, Éditions Jean-Claude Lattès, 2018, 330 p.  (ISBN 978-2-7096-6172-0) Rééd. Le Livre de poche, coll. « Policier » (no 36682), 2022, 264 p.  (ISBN 978-2-253-10401-8)
 Comment entrer à l'Académie en évitant les balles, Paris, Éditions Createspace, 2018, 152 p.  (ISBN 978-1-7069-8248-7)
-Mélodie pour un tueur, Paris, Éditions Jean-Claude Lattès, 2020, 280 p.  (ISBN 978-2-7096-6624-4) Rééd. Le Livre de poche, coll. « Policier » (no 37415), 2023, 256 p.  (ISBN 978-2-253-24275-8)
-Série Les Mystères de Venise
-(en partie publiée sous le pseudonyme Loredan)
+Mélodie pour un tueur, Paris, Éditions Jean-Claude Lattès, 2020, 280 p.  (ISBN 978-2-7096-6624-4) Rééd. Le Livre de poche, coll. « Policier » (no 37415), 2023, 256 p.  (ISBN 978-2-253-24275-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les Mystères de Venise</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en partie publiée sous le pseudonyme Loredan)
 Loredan, Leonora agent du doge : les mystères de Venise, Paris, Fayard, 1er octobre 2008, 352 p. (ISBN 978-2-213-63763-1)
 Leonora agent du doge, Versailles, Éditions Feryane, coll. « Policier », 15 septembre 2009, 437 p. (ISBN 978-2-84011-925-8)
 Leonora agent du doge, Paris, Le Livre de poche, coll. « Policier » (no 31767), 14 avril 2010, 352 p. (ISBN 978-2-253-12973-8)
@@ -645,14 +709,90 @@
 Loredan, Confessions d’un masque vénitien, Paris, Éditions Corps 16, coll. « Police », 1er avril 2011, 392 p. (ISBN 978-2-84057-781-2)
 Loredan, Crimes, gondoles et pâtisserie : Les mystères de Venise, Paris, Fayard, 30 mars 2011, 288 p. (ISBN 978-2-213-66221-3)
 Loredan, Crimes, gondoles et pâtisserie, Paris, Éditions Corps 16, coll. « Police », 1er septembre 2011, 308 p. (ISBN 978-2-84057-784-3)
-Les Îles mystérieuses, Paris, Fayard, 2 mai 2012, 280 p. (ISBN 978-2-213-66895-6)
-Série Arsène Lupin
-Le Retour d'Arsène Lupin. Paris : Le Masque, 10/2018, 252 p.  (ISBN 978-2-7024-4905-9) Rééd. Le Masque, coll. « Poche », 11/2019, 268 p.  (ISBN 978-2-7024-4938-7)
+Les Îles mystérieuses, Paris, Fayard, 2 mai 2012, 280 p. (ISBN 978-2-213-66895-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Arsène Lupin</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Retour d'Arsène Lupin. Paris : Le Masque, 10/2018, 252 p.  (ISBN 978-2-7024-4905-9) Rééd. Le Masque, coll. « Poche », 11/2019, 268 p.  (ISBN 978-2-7024-4938-7)
 Le Noël d’Arsène Lupin. Paris : Le Masque, 11/2019, 254 p.  (ISBN 978-2-7024-4935-6)
 Un amour d'Arsène Lupin. Paris : Le Masque, 01/2021, 250 p.  (ISBN 978-2-7024-4968-4)
-La Vie privée d'Arsène Lupin. Paris : Le Masque, 03/2022, 237 p.
-Série Au service secret de Marie Antoinette
-L'Enquête du Barry. Paris : La Martinière, 10/2019, 330 p.  (ISBN 978-2-7324-9188-2) Rééd. Paris : La Martinière, 03/2020, 330 p.  (ISBN 978-2-7324-9495-1)
+La Vie privée d'Arsène Lupin. Paris : Le Masque, 03/2022, 237 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Au service secret de Marie Antoinette</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Enquête du Barry. Paris : La Martinière, 10/2019, 330 p.  (ISBN 978-2-7324-9188-2) Rééd. Paris : La Martinière, 03/2020, 330 p.  (ISBN 978-2-7324-9495-1)
 Pas de répit pour la reine. Paris : La Martinière, 05/2019, 351 p.  (ISBN 978-2-7324-9068-7) Rééd. Carrières-sur-Seine : À vue d’œil, coll. « 16 », 11/2019, 408 p.  (ISBN 979-10-269-0385-7)
 La Mariée était en Rose Bertin. Paris : La Martinière, 03/2020, 312 p.  (ISBN 978-2-7324-9219-3)
 La Femme au pistolet d’or. Paris : La Martinière, 10/2020, 360 p.  (ISBN 978-2-7324-9509-5)
@@ -660,21 +800,173 @@
 Le coiffeur frise toujours deux fois. Paris : La Martinière, 2021
 Les Fourberies d'Escarpin. Paris : La Martinière, 2022
 Crime et chat qui ment. Paris : La Martinière, 2022
-Mort sur le fil. Paris : La Martinière, 2023
-Série Les Enquêtes de Loulou Chandeleur
-Seules les femmes sont éternelles. Paris : La Martinière, 11/2017, 285 p.  (ISBN 978-2-7324-8666-6)
-Les Taties flingueuses. Independently published, 03/2019, 147 p.  (ISBN 9781798704523)
-Série Les Enquêtes de Charlock le chat
-Le Chat qui en savait trop. Independently published, 02/2018, 161 p.  (ISBN 978-1985666900)
-Ne tirez pas sur le chat moqueur. Independently published, 06/2020, 208 p.  (ISBN 979-8656411592)
-Série L'Orphelin de la Bastille
-L'Orphelin de la Bastille, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 1), 31 août 2002, 139 p. (ISBN 2-7459-0673-9, BNF 38900441)
+Mort sur le fil. Paris : La Martinière, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Les Enquêtes de Loulou Chandeleur</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Seules les femmes sont éternelles. Paris : La Martinière, 11/2017, 285 p.  (ISBN 978-2-7324-8666-6)
+Les Taties flingueuses. Independently published, 03/2019, 147 p.  (ISBN 9781798704523)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les Enquêtes de Charlock le chat</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Chat qui en savait trop. Independently published, 02/2018, 161 p.  (ISBN 978-1985666900)
+Ne tirez pas sur le chat moqueur. Independently published, 06/2020, 208 p.  (ISBN 979-8656411592)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série L'Orphelin de la Bastille</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'Orphelin de la Bastille, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 1), 31 août 2002, 139 p. (ISBN 2-7459-0673-9, BNF 38900441)
 Révolution !, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 13), 11 mai 2003, 163 p. (ISBN 2-7459-1128-7, BNF 39032920)
 La Grande Peur, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 21), 17 mars 2004, 162 p. (ISBN 2-7459-1346-8, BNF 39178158)
 Les Derniers Jours de Versailles, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 29), 9 septembre 2005, 181 p. (ISBN 2-7459-1370-0, BNF 40068723)
-Les Savants de la Révolution, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 36), 7 septembre 2006, 217 p. (ISBN 978-2-7459-2324-0, BNF 40931603)
-Série Les Nouvelles Enquêtes du juge Ti
-Le Château du lac Tchou-an : Une nouvelle enquête du juge Ti, Paris, Fayard, 2004, 214 p. (ISBN 978-2-213-61798-5, BNF 39132857)
+Les Savants de la Révolution, Toulouse, Éditions Milan, coll. « Milan poche histoire » (no 36), 7 septembre 2006, 217 p. (ISBN 978-2-7459-2324-0, BNF 40931603)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Les Nouvelles Enquêtes du juge Ti</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Château du lac Tchou-an : Une nouvelle enquête du juge Ti, Paris, Fayard, 2004, 214 p. (ISBN 978-2-213-61798-5, BNF 39132857)
 Le Château du lac Tchou-an, Paris, Éditions Points, coll. « Policier » (no P1541), 2006, 217 p. (ISBN 978-2-7578-0048-5, BNF 40923282)
 La Nuit des juges : une nouvelle enquête du juge Ti, Paris, Fayard, 2004, 216 p. (ISBN 978-2-213-62010-7, BNF 39211642)
 La Nuit des juges, Paris, Éditions Points, coll. « Policier » (no P1542), 2006, 224 p. (ISBN 978-2-7578-0049-2, BNF 40924372)
@@ -702,19 +994,57 @@
 Thé vert et Arsenic, Paris, Éditions Points, coll. « Policier » (no P4065), 2015, 264 p. (ISBN 978-2-7578-3632-3)
 Un Chinois ne ment jamais : une nouvelle enquête du juge Ti, Paris, Fayard, 2010, 300 p. (ISBN 978-2-213-65576-5, BNF 42292619)
 Un Chinois ne ment jamais : Diplomatie en kimono, Paris, Éditions Points, coll. « Policier » (no P4231), 2016, 494 p. (ISBN 978-2-7578-5293-4)
-Divorce à la chinoise, Paris, Fayard, 2011, 276 p.  (ISBN 9782213662930)[2]
-Meurtres sur le fleuve jaune, Fayard, 2011, 300 p.  (ISBN 9782213666730)[3]
+Divorce à la chinoise, Paris, Fayard, 2011, 276 p.  (ISBN 9782213662930)
+Meurtres sur le fleuve jaune, Fayard, 2011, 300 p.  (ISBN 9782213666730)
 Divorce à la chinoise : Meurtres sur le fleuve Jaune, Paris, Éditions Points, coll. « Policier » (no P4664), 2017, 474 p. (ISBN 978-2-7578-6872-0)
-La Longue Marche du juge Ti, Fayard, 2012, 246 p.  (ISBN 9782213671338)[4]
+La Longue Marche du juge Ti, Fayard, 2012, 246 p.  (ISBN 9782213671338)
 La Longue Marche du juge Ti, Paris, Éditions Points, coll. « Policier » (no P4738), 2018, 506 p. (ISBN 978-2-7578-6873-7)
 L'Énigme du dragon d’or, Createspace, 2014
 Le Bon, la Brute et le Juge Ti : Une Nouvelle Enquête du Juge Ti, Createspace, 2015, 136 p. (ISBN 978-1-5173-4046-9)
 L’Art de cuisiner le suspect et le canard laqué, Createspace, 2017, 142 p. (ISBN 978-1-5432-2356-9)
 Mort dans un champ de lotus, Createspace 2018
 Meurtre au Nouvel an chinois, Createspace 2020
-Le Secret du phénix de jade, Createspace 2021
-Autres romans
-Les Insulaires ou Quelques Dieux sauvages, Paris, Éditions de Septembre, 1990, 173 p. (ISBN 978-2-87914-002-5, BNF 35106908)
+Le Secret du phénix de jade, Createspace 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Insulaires ou Quelques Dieux sauvages, Paris, Éditions de Septembre, 1990, 173 p. (ISBN 978-2-87914-002-5, BNF 35106908)
 Les Fous de Guernesey ou les Amateurs de littérature : roman, Paris, Robert Laffont, 1991, 365 p. (ISBN 2-221-07149-2, BNF 35468869)  — Roman qui traite de l'exil de Victor Hugo dans les îles Anglo-Normandes
 L'Ami du genre humain : roman, Paris, Robert Laffont, 1  1993, 371 p. (ISBN 2-221-07671-0, BNF 35592355)  — Roman ayant trait à l'Affaire Molière - Corneille
 L'Odyssée d'Abounaparti, Paris, Robert Laffont, 1994, 394 p. (ISBN 2-221-08014-9, BNF 35749655)  — Traite des savants qui participèrent à la Campagne d'Égypte.
@@ -722,62 +1052,200 @@
 Mademoiselle Chon du Barry ou Les Surprises du destin : roman, Paris, Robert Laffont, 1996, 174 p. (ISBN 2-221-08393-8, BNF 35850251)  — Traite de la belle-sœur de la dernière favorite, Madame du Barry.
 Les Princesses vagabondes : roman, Paris, Éditions Jean-Claude Lattès, 1998, 201 p. (ISBN 2-7096-1902-4, BNF 36978821)  — Traite de l'errance, sous la Révolution, de Mesdames, Madame Adélaïde et Madame Victoire, les tantes de Louis XVI.
 Les Princesses vagabondes, Paris, Corps 16, février 1999, 240 p. (ISBN 2-84057-260-5)
-La Jeune Fille et le Philosophe : roman, Paris, Fayard, août 2000, 361 p. (ISBN 2-213-60721-4, BNF 37117293)  — Roman relatif à une pupille de Voltaire, Mademoiselle Corneille, fondé sur une anecdote historique. En 1761, Voltaire, réfugié à Ferney, recueille une descendante de Pierre Corneille tombée dans la misère et l'éduque selon ses principes philosophiques, avec l'intention de faire d'elle la parfaite jeune fille des Lumières.[5]
+La Jeune Fille et le Philosophe : roman, Paris, Fayard, août 2000, 361 p. (ISBN 2-213-60721-4, BNF 37117293)  — Roman relatif à une pupille de Voltaire, Mademoiselle Corneille, fondé sur une anecdote historique. En 1761, Voltaire, réfugié à Ferney, recueille une descendante de Pierre Corneille tombée dans la misère et l'éduque selon ses principes philosophiques, avec l'intention de faire d'elle la parfaite jeune fille des Lumières.
 Un beau captif : roman, Paris, Fayard, 2001, 301 p. (ISBN 2-213-60946-2, BNF 37636607)  — Relate les aventures d'un faux Louis XVII à Châlons-en-Champagne, sous le Directoire.
 Un thé chez Confucius ou Une enquête du juge Bao, Paris, Éditions Philippe Picquier, 2012, 254 p. (ISBN 978-2-8097-0329-0)
 Cent une princesses, Paris, Chez l'auteur, 2014, 262 p. (ISBN 978-1-0908-0099-2)
 Qui en veut au Marquis de Sade ?, Paris, J'ai lu (no 11223), 2015, 285 p. (ISBN 978-2-290-09855-4)
 Madame la marquise et les gentlemen cambrioleurs, Bernay, City poche, 2017, 265 p. (ISBN 978-2-8246-1092-4)
-Seules les femmes sont éternelles, Paris, La Martinière, 2017, 285 p. (ISBN 978-2-7324-8666-6)
-Ouvrages de littérature d'enfance et de jeunesse
-Deux des ouvrages de cette série ont fait l'objet d'une réédition avec un nouvel illustrateur.
+Seules les femmes sont éternelles, Paris, La Martinière, 2017, 285 p. (ISBN 978-2-7324-8666-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Deux des ouvrages de cette série ont fait l'objet d'une réédition avec un nouvel illustrateur.
 La Nuit de toutes les couleurs, Toulouse, Milan, coll. « Milan poche cadet : éclats de rire » (no 7), 28 mai 1999, 39 p. (ISBN 2-84113-853-4, BNF 37183141)  — Ouvrage illustré par Émilie Chollat.
 Une histoire à dormir debout, Toulouse, Milan, coll. « Milan poche cadet : aventure » (no 13), 7 septembre 1999, 39 p. (ISBN 2-84113-896-8, BNF 37103076)  — Ouvrage illustré par Gwen Keraval.
 Une histoire à dormir debout, Toulouse, Milan, coll. « Milan poche cadet : aventure » (no 13), 8 octobre 2008, 33 p. (ISBN 978-2-7459-2824-5, BNF 41385195)  — Ouvrage illustré par Princesse Camcam.
 Petit Lapin a disparu, Toulouse, Milan, coll. « Milan poche benjamin : quel mystère ! » (no 3), 26 avril 2000, 23 p. (ISBN 2-7459-0054-4, BNF 37189695)  — Ouvrage illustré par Isabelle Chatellard.
 Petit Lapin a disparu, Toulouse, Milan, coll. « Milan poche benjamin : quel mystère ! » (no 3), 4 mars 2009, 22 p. (ISBN 978-2-7459-3633-2, BNF 41468583)  — Ouvrage illustré par Hervé Le Goff.
 Je m'envole, Toulouse, Milan, coll. « Milan poche benjamin : quelle vie ! » (no 7), 26 avril 2000, 23 p. (ISBN 2-7459-0058-7, BNF 37189702)  — Ouvrage illustré par Olivier Latyk.
-La Princesse Météo, Toulouse, Milan, coll. « Milan poche cadet : éclats de rire » (no 94), 16 septembre 2005, 38 p. (ISBN 978-2-7459-1695-2, BNF 40069849)  — Ouvrage illustré par Frédéric Pillot.
-Essais
-La Pension Belhomme : une prison de luxe sous la Terreur, Paris, Fayard, 3 avril 2002, 494 p. (ISBN 2-213-61211-0, BNF 38850568)
-Douze tyrans minuscules : les policiers de Paris sous la Terreur, Paris, Fayard, 18 mars 2003, 377 p. (ISBN 2-213-61543-8, BNF 38970918)
-Théâtre
-Mademoiselle se marie : théâtre, Cholet, Éditions Hérault, 1996, 46 p. (ISBN 2-7407-0099-7, BNF 35848342)  — Ouvrage publié par « Les Trois Coups ». Premier Prix d'écriture théâtrale de l'association Les Trois Coups, Cholet, 1995. Créée en 1996 au Montmartre-Galabru, à Paris.
-Le Gouffre de Kassopé, éditeur=Independently published 1994. Pièce en cinq actes créée le 10 septembre 2023 sur le site archéologique de Kassopé (Epire, Grèce) pour célébrer la restauration du théâtre antique.
-Nouvelle
-Écrits et chuchotements, dans l'anthologie À peine entré dans la librairie... La Griffe noire, 30 ans. Paris : Télémaque, 06/2018, p. 189-200.  (ISBN 978-2-7533-0357-7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_Lenormand</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+La Princesse Météo, Toulouse, Milan, coll. « Milan poche cadet : éclats de rire » (no 94), 16 septembre 2005, 38 p. (ISBN 978-2-7459-1695-2, BNF 40069849)  — Ouvrage illustré par Frédéric Pillot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>La Pension Belhomme : une prison de luxe sous la Terreur, Paris, Fayard, 3 avril 2002, 494 p. (ISBN 2-213-61211-0, BNF 38850568)
+Douze tyrans minuscules : les policiers de Paris sous la Terreur, Paris, Fayard, 18 mars 2003, 377 p. (ISBN 2-213-61543-8, BNF 38970918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mademoiselle se marie : théâtre, Cholet, Éditions Hérault, 1996, 46 p. (ISBN 2-7407-0099-7, BNF 35848342)  — Ouvrage publié par « Les Trois Coups ». Premier Prix d'écriture théâtrale de l'association Les Trois Coups, Cholet, 1995. Créée en 1996 au Montmartre-Galabru, à Paris.
+Le Gouffre de Kassopé, éditeur=Independently published 1994. Pièce en cinq actes créée le 10 septembre 2023 sur le site archéologique de Kassopé (Epire, Grèce) pour célébrer la restauration du théâtre antique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Écrits et chuchotements, dans l'anthologie À peine entré dans la librairie... La Griffe noire, 30 ans. Paris : Télémaque, 06/2018, p. 189-200.  (ISBN 978-2-7533-0357-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frédéric_Lenormand</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Lenormand</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910686-45-1, OCLC 315873361), p. 177-178.
 Encyclopædia Universalis, entrée "Policier roman".
-Prix Arsène Lupin[6]</t>
+Prix Arsène Lupin</t>
         </is>
       </c>
     </row>
